--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.999999999976535</v>
+        <v>0.9999999999765321</v>
       </c>
       <c r="E2">
-        <v>0.999999999976535</v>
+        <v>0.9999999999765321</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999806269481</v>
+        <v>0.9999999805992886</v>
       </c>
       <c r="E3">
-        <v>0.9999999806269481</v>
+        <v>0.9999999805992886</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.967673628278193</v>
+        <v>0.9676414235031057</v>
       </c>
       <c r="E4">
-        <v>0.967673628278193</v>
+        <v>0.9676414235031057</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9853051515225139</v>
+        <v>0.9853091139452375</v>
       </c>
       <c r="E6">
-        <v>0.9853051515225139</v>
+        <v>0.9853091139452375</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9951371870534846</v>
+        <v>0.9996192598689895</v>
       </c>
       <c r="E7">
-        <v>0.00486281294651536</v>
+        <v>0.0003807401310105263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9949256691090689</v>
+        <v>0.9813933696986636</v>
       </c>
       <c r="E8">
-        <v>0.005074330890931122</v>
+        <v>0.01860663030133636</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9949780230491682</v>
+        <v>0.7423381707150687</v>
       </c>
       <c r="E9">
-        <v>0.005021976950831841</v>
+        <v>0.2576618292849313</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9947544449401171</v>
+        <v>0.9999671458041317</v>
       </c>
       <c r="E10">
-        <v>0.005245555059882889</v>
+        <v>3.285419586829263E-05</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9951748324725139</v>
+        <v>0.01301233805461072</v>
       </c>
       <c r="E11">
-        <v>0.004825167527486074</v>
+        <v>0.9869876619453893</v>
       </c>
       <c r="F11">
-        <v>10.27439308166504</v>
+        <v>10.737473487854</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.9999999988977195</v>
+        <v>0.9999999989073964</v>
       </c>
       <c r="E13">
-        <v>0.9999999988977195</v>
+        <v>0.9999999989073964</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.7055307430100104</v>
+        <v>0.7054590607861471</v>
       </c>
       <c r="E14">
-        <v>0.7055307430100104</v>
+        <v>0.7054590607861471</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9995797424366049</v>
+        <v>0.9995806748450581</v>
       </c>
       <c r="E16">
-        <v>0.9995797424366049</v>
+        <v>0.9995806748450581</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9994231580487885</v>
+        <v>0.9999771890741436</v>
       </c>
       <c r="E17">
-        <v>0.0005768419512115486</v>
+        <v>2.28109258564313E-05</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9994197848063108</v>
+        <v>0.9719261940051446</v>
       </c>
       <c r="E18">
-        <v>0.0005802151936892264</v>
+        <v>0.02807380599485543</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9994481601691628</v>
+        <v>0.9737156576164824</v>
       </c>
       <c r="E19">
-        <v>0.0005518398308371752</v>
+        <v>0.02628434238351762</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9994088013540025</v>
+        <v>0.9999998710225964</v>
       </c>
       <c r="E20">
-        <v>0.0005911986459975482</v>
+        <v>1.289774036461466E-07</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9994560336637975</v>
+        <v>0.08754904276927519</v>
       </c>
       <c r="E21">
-        <v>0.0005439663362024616</v>
+        <v>0.9124509572307248</v>
       </c>
       <c r="F21">
-        <v>14.11676979064941</v>
+        <v>14.3691987991333</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
